--- a/Resource/TestExcel/TestEcelMaterials.xlsx
+++ b/Resource/TestExcel/TestEcelMaterials.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vtnghia\Documents\GitHub\CukCuk-G-2\Resource\TestExcel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Documents\MISA-CukCuk-Duplicate\Resource\TestExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BFEF766-35B2-430A-9EC4-385CA0CF7C6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42AC75F6-C39F-4D28-BAEF-86EC9B4FF454}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3645" yWindow="1140" windowWidth="21600" windowHeight="11385" xr2:uid="{13D47D62-CEEE-495D-9652-C4862B71A8E0}"/>
+    <workbookView xWindow="1830" yWindow="2025" windowWidth="21600" windowHeight="11385" xr2:uid="{13D47D62-CEEE-495D-9652-C4862B71A8E0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
   <si>
     <t>Mã Nguyên vật liệu</t>
   </si>
@@ -58,9 +58,6 @@
     <t>BH-60817</t>
   </si>
   <si>
-    <t>Bia tươi</t>
-  </si>
-  <si>
     <t>Nhập khẩu</t>
   </si>
   <si>
@@ -74,6 +71,39 @@
   </si>
   <si>
     <t>Hello world</t>
+  </si>
+  <si>
+    <t>Xe hơi</t>
+  </si>
+  <si>
+    <t>Nhóm 3</t>
+  </si>
+  <si>
+    <t>Nhóm 4</t>
+  </si>
+  <si>
+    <t>Nhóm 5</t>
+  </si>
+  <si>
+    <t>Bia tươi1</t>
+  </si>
+  <si>
+    <t>Bia tươi2</t>
+  </si>
+  <si>
+    <t>Bia tươi3</t>
+  </si>
+  <si>
+    <t>Bia tươi4</t>
+  </si>
+  <si>
+    <t>BH-60819</t>
+  </si>
+  <si>
+    <t>BH-60818</t>
+  </si>
+  <si>
+    <t>BH-60820</t>
   </si>
 </sst>
 </file>
@@ -442,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C469519B-4182-4D78-B939-7576C518807F}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -484,30 +514,86 @@
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="2"/>
+      <c r="E2" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="F2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>12</v>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Resource/TestExcel/TestEcelMaterials.xlsx
+++ b/Resource/TestExcel/TestEcelMaterials.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Documents\MISA-CukCuk-Duplicate\Resource\TestExcel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vtnghia\Documents\GitHub\CukCuk-G-2\Resource\TestExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42AC75F6-C39F-4D28-BAEF-86EC9B4FF454}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{780E5E42-9D9B-4537-9779-3041927925A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1830" yWindow="2025" windowWidth="21600" windowHeight="11385" xr2:uid="{13D47D62-CEEE-495D-9652-C4862B71A8E0}"/>
+    <workbookView xWindow="405" yWindow="2130" windowWidth="21600" windowHeight="11385" xr2:uid="{13D47D62-CEEE-495D-9652-C4862B71A8E0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="87">
   <si>
     <t>Mã Nguyên vật liệu</t>
   </si>
@@ -55,9 +55,6 @@
     <t>Đơn vị tính</t>
   </si>
   <si>
-    <t>BH-60817</t>
-  </si>
-  <si>
     <t>Nhập khẩu</t>
   </si>
   <si>
@@ -85,25 +82,220 @@
     <t>Nhóm 5</t>
   </si>
   <si>
-    <t>Bia tươi1</t>
-  </si>
-  <si>
     <t>Bia tươi2</t>
   </si>
   <si>
     <t>Bia tươi3</t>
   </si>
   <si>
-    <t>Bia tươi4</t>
-  </si>
-  <si>
-    <t>BH-60819</t>
-  </si>
-  <si>
-    <t>BH-60818</t>
-  </si>
-  <si>
-    <t>BH-60820</t>
+    <t>Bia tươi0</t>
+  </si>
+  <si>
+    <t>Bia tươi 6</t>
+  </si>
+  <si>
+    <t>Bia tươi 7</t>
+  </si>
+  <si>
+    <t>Bia 8</t>
+  </si>
+  <si>
+    <t>Bia 9</t>
+  </si>
+  <si>
+    <t>Bia ngon 11</t>
+  </si>
+  <si>
+    <t>Bia 12</t>
+  </si>
+  <si>
+    <t>Bia 12.5</t>
+  </si>
+  <si>
+    <t>Bia tốt 14</t>
+  </si>
+  <si>
+    <t>Bia ngon 15</t>
+  </si>
+  <si>
+    <t>Bia sạch 16</t>
+  </si>
+  <si>
+    <t>Bia tốt 17</t>
+  </si>
+  <si>
+    <t>Bia Heniken 18</t>
+  </si>
+  <si>
+    <t>Bia sạch 19</t>
+  </si>
+  <si>
+    <t>Bia ổn 20</t>
+  </si>
+  <si>
+    <t>Bia tươi 21</t>
+  </si>
+  <si>
+    <t>Bia ngon 22</t>
+  </si>
+  <si>
+    <t>Bia sạch 23</t>
+  </si>
+  <si>
+    <t>Bia ngon 26</t>
+  </si>
+  <si>
+    <t>Bia tươi 27</t>
+  </si>
+  <si>
+    <t>Bia ngon 28</t>
+  </si>
+  <si>
+    <t>Bia tốt 29</t>
+  </si>
+  <si>
+    <t>Bia ngon 30</t>
+  </si>
+  <si>
+    <t>Bia tốt 31</t>
+  </si>
+  <si>
+    <t>Bia Hà Nội 32</t>
+  </si>
+  <si>
+    <t>Bia Trúc Bạch</t>
+  </si>
+  <si>
+    <t>Bia tươi 33</t>
+  </si>
+  <si>
+    <t>Bia ngon 34</t>
+  </si>
+  <si>
+    <t>Bia tốt 36</t>
+  </si>
+  <si>
+    <t>Bia đẹp 35</t>
+  </si>
+  <si>
+    <t>Bia tốt 37</t>
+  </si>
+  <si>
+    <t>Bia tươi38</t>
+  </si>
+  <si>
+    <t>Bia tươi39</t>
+  </si>
+  <si>
+    <t>BH-60821</t>
+  </si>
+  <si>
+    <t>BH-60822</t>
+  </si>
+  <si>
+    <t>BH-60824</t>
+  </si>
+  <si>
+    <t>BH-60825</t>
+  </si>
+  <si>
+    <t>BH-60826</t>
+  </si>
+  <si>
+    <t>BH-60827</t>
+  </si>
+  <si>
+    <t>BH-60828</t>
+  </si>
+  <si>
+    <t>BH-60829</t>
+  </si>
+  <si>
+    <t>BH-60830</t>
+  </si>
+  <si>
+    <t>BH-60831</t>
+  </si>
+  <si>
+    <t>BH-60832</t>
+  </si>
+  <si>
+    <t>BH-60833</t>
+  </si>
+  <si>
+    <t>BH-60834</t>
+  </si>
+  <si>
+    <t>BH-60835</t>
+  </si>
+  <si>
+    <t>BH-60836</t>
+  </si>
+  <si>
+    <t>BH-60837</t>
+  </si>
+  <si>
+    <t>BH-60839</t>
+  </si>
+  <si>
+    <t>BH-60840</t>
+  </si>
+  <si>
+    <t>BH-60843</t>
+  </si>
+  <si>
+    <t>BH-60844</t>
+  </si>
+  <si>
+    <t>BH-60845</t>
+  </si>
+  <si>
+    <t>BH-60847</t>
+  </si>
+  <si>
+    <t>BH-60848</t>
+  </si>
+  <si>
+    <t>BH-60849</t>
+  </si>
+  <si>
+    <t>BH-60850</t>
+  </si>
+  <si>
+    <t>BH-60851</t>
+  </si>
+  <si>
+    <t>BH-60852</t>
+  </si>
+  <si>
+    <t>BH-60853</t>
+  </si>
+  <si>
+    <t>BH-60854</t>
+  </si>
+  <si>
+    <t>BH-60855</t>
+  </si>
+  <si>
+    <t>BH-60856</t>
+  </si>
+  <si>
+    <t>BH-60857</t>
+  </si>
+  <si>
+    <t>BH-60858</t>
+  </si>
+  <si>
+    <t>BH-60841</t>
+  </si>
+  <si>
+    <t>BH-60846</t>
+  </si>
+  <si>
+    <t>BH-60838</t>
+  </si>
+  <si>
+    <t>BH-60842</t>
   </si>
 </sst>
 </file>
@@ -472,10 +664,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C469519B-4182-4D78-B939-7576C518807F}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -509,94 +701,699 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="A3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>19</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>